--- a/docs/Estadisticas_Descriptivas.xlsx
+++ b/docs/Estadisticas_Descriptivas.xlsx
@@ -259,28 +259,28 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>81.16828464056249</v>
+        <v>80.69829787234042</v>
       </c>
       <c r="C2" t="n">
-        <v>88.8142697806722</v>
+        <v>88.80627586206897</v>
       </c>
       <c r="D2" t="n">
-        <v>5.708570875190259</v>
+        <v>5.71111875</v>
       </c>
       <c r="E2" t="n">
         <v>43.356712328767124</v>
       </c>
       <c r="F2" t="n">
-        <v>82.98734320621992</v>
+        <v>82.99227586206896</v>
       </c>
       <c r="G2" t="n">
         <v>0.7722668598266854</v>
       </c>
       <c r="H2" t="n">
-        <v>5.19331561352266E11</v>
+        <v>5.199394668185655E11</v>
       </c>
       <c r="I2" t="n">
-        <v>14337.971269930384</v>
+        <v>14342.826620689655</v>
       </c>
       <c r="J2" t="n">
         <v>-0.003002397394753744</v>
@@ -289,13 +289,13 @@
         <v>63.30192531059528</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1826609150161825E7</v>
+        <v>2.1850737925517242E7</v>
       </c>
       <c r="M2" t="n">
-        <v>60.598546966731895</v>
+        <v>60.597793103448275</v>
       </c>
       <c r="N2" t="n">
-        <v>830831.8312084413</v>
+        <v>831735.3982068965</v>
       </c>
       <c r="O2" t="n">
         <v>5.402009419110268</v>
@@ -316,7 +316,7 @@
         <v>4.862754127054795E7</v>
       </c>
       <c r="U2" t="n">
-        <v>211.62150462791558</v>
+        <v>211.48862068965516</v>
       </c>
       <c r="V2" t="n">
         <v>0.6587614910504608</v>
@@ -325,10 +325,10 @@
         <v>0.8026219326703028</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4167206834261625</v>
+        <v>7.415358620689656</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.39712849910661</v>
+        <v>87.40430555555555</v>
       </c>
     </row>
     <row r="3">
@@ -336,28 +336,28 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>16.21056280857444</v>
+        <v>16.198157180766724</v>
       </c>
       <c r="C3" t="n">
-        <v>27.146759101652574</v>
+        <v>27.14658726108864</v>
       </c>
       <c r="D3" t="n">
-        <v>4.195902722347002</v>
+        <v>4.195846640666898</v>
       </c>
       <c r="E3" t="n">
         <v>19.694103584911556</v>
       </c>
       <c r="F3" t="n">
-        <v>27.389706125529976</v>
+        <v>27.38964127737365</v>
       </c>
       <c r="G3" t="n">
         <v>0.1231785987301398</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9620934565242236E12</v>
+        <v>1.9620797073444812E12</v>
       </c>
       <c r="I3" t="n">
-        <v>20030.44266347154</v>
+        <v>20030.356747389586</v>
       </c>
       <c r="J3" t="n">
         <v>0.15220613609473274</v>
@@ -366,13 +366,13 @@
         <v>6.656333724326517</v>
       </c>
       <c r="L3" t="n">
-        <v>7.738998857648969E7</v>
+        <v>7.738943940222323E7</v>
       </c>
       <c r="M3" t="n">
-        <v>10.08535589952517</v>
+        <v>10.085351785974003</v>
       </c>
       <c r="N3" t="n">
-        <v>2076692.759962646</v>
+        <v>2076664.0604624643</v>
       </c>
       <c r="O3" t="n">
         <v>1.1210328800045068</v>
@@ -393,7 +393,7 @@
         <v>1.6407431329422265E8</v>
       </c>
       <c r="U3" t="n">
-        <v>690.6506808438972</v>
+        <v>690.6488144212989</v>
       </c>
       <c r="V3" t="n">
         <v>0.09928129116028417</v>
@@ -402,10 +402,10 @@
         <v>0.1263806174777536</v>
       </c>
       <c r="X3" t="n">
-        <v>5.402832406758973</v>
+        <v>5.402807340091799</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.245456448122937</v>
+        <v>16.245341513811987</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>80.81</v>
+        <v>80.69829787234042</v>
       </c>
       <c r="C5" t="n">
         <v>97.54</v>
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>82.01787610619469</v>
+        <v>80.69829787234042</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
@@ -600,7 +600,7 @@
         <v>4774401.875</v>
       </c>
       <c r="M6" t="n">
-        <v>60.685</v>
+        <v>60.675</v>
       </c>
       <c r="N6" t="n">
         <v>215261.75</v>
@@ -798,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>12.965336999999996</v>
+        <v>12.780011999999996</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -831,7 +831,7 @@
         <v>5596694.168099999</v>
       </c>
       <c r="M9" t="n">
-        <v>7.783649999999989</v>
+        <v>7.798475999999996</v>
       </c>
       <c r="N9" t="n">
         <v>283651.50643199997</v>
@@ -875,7 +875,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>13.174999999999983</v>
+        <v>13.436702127659572</v>
       </c>
       <c r="C10" t="n">
         <v>2.4599999999999937</v>
@@ -952,28 +952,28 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>0.19971547853154314</v>
+        <v>0.20072489269093607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3056576287649697</v>
+        <v>0.30568320760631645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7350180656567846</v>
+        <v>0.7346803357340272</v>
       </c>
       <c r="E11" t="n">
         <v>0.45423424718125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3300467886707465</v>
+        <v>0.3300263909245546</v>
       </c>
       <c r="G11" t="n">
         <v>0.15950263456570432</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7781132566162734</v>
+        <v>3.7736694991633613</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3970207002352846</v>
+        <v>1.396541788945257</v>
       </c>
       <c r="J11" t="n">
         <v>-50.69486682898506</v>
@@ -982,13 +982,13 @@
         <v>0.10515215282421118</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5456716177975776</v>
+        <v>3.5417311610262834</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1664290053862504</v>
+        <v>0.16643100795365603</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4995344207528802</v>
+        <v>2.4967845121651155</v>
       </c>
       <c r="O11" t="n">
         <v>0.20752145970695945</v>
@@ -1009,7 +1009,7 @@
         <v>3.3741025971551</v>
       </c>
       <c r="U11" t="n">
-        <v>3.2636129398013534</v>
+        <v>3.2656547296451377</v>
       </c>
       <c r="V11" t="n">
         <v>0.150709008509241</v>
@@ -1018,10 +1018,10 @@
         <v>0.1574597108968708</v>
       </c>
       <c r="X11" t="n">
-        <v>0.728466479644091</v>
+        <v>0.7285969049450124</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.18588089479723582</v>
+        <v>0.18586431652942076</v>
       </c>
     </row>
     <row r="12">
@@ -1029,28 +1029,28 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.375098219638781</v>
+        <v>-1.2918474361853092</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.523379587932732</v>
+        <v>-2.5225506749590334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30127449856272087</v>
+        <v>0.2994784892801578</v>
       </c>
       <c r="E12" t="n">
         <v>0.7584483246342189</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.4495132212574244</v>
+        <v>-1.450059970537098</v>
       </c>
       <c r="G12" t="n">
         <v>-0.7025512190911442</v>
       </c>
       <c r="H12" t="n">
-        <v>7.478924958989467</v>
+        <v>7.4781596907236745</v>
       </c>
       <c r="I12" t="n">
-        <v>2.038256523734461</v>
+        <v>2.0375608312488693</v>
       </c>
       <c r="J12" t="n">
         <v>0.8469175457442735</v>
@@ -1059,13 +1059,13 @@
         <v>-0.6816536184212085</v>
       </c>
       <c r="L12" t="n">
-        <v>7.866773735659931</v>
+        <v>7.8660128983431346</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.05609392336275923</v>
+        <v>-0.055871291631802225</v>
       </c>
       <c r="N12" t="n">
-        <v>4.775155532119468</v>
+        <v>4.774058858157279</v>
       </c>
       <c r="O12" t="n">
         <v>0.044018219536452484</v>
@@ -1086,7 +1086,7 @@
         <v>7.204554853378887</v>
       </c>
       <c r="U12" t="n">
-        <v>9.547723928236723</v>
+        <v>9.548374445556385</v>
       </c>
       <c r="V12" t="n">
         <v>-0.4572486118392355</v>
@@ -1095,10 +1095,10 @@
         <v>-1.1035354044042887</v>
       </c>
       <c r="X12" t="n">
-        <v>1.331286889952851</v>
+        <v>1.3320562133951013</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.320361157169231</v>
+        <v>-1.3217050379494302</v>
       </c>
     </row>
     <row r="13">
@@ -1183,28 +1183,28 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>1.6853262418672923</v>
+        <v>1.5447454302717345</v>
       </c>
       <c r="C14" t="n">
-        <v>4.932260382140734</v>
+        <v>4.929489407085548</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9763875176081274</v>
+        <v>-0.9770089904580632</v>
       </c>
       <c r="E14" t="n">
         <v>-0.39098232022118173</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6619862066101034</v>
+        <v>0.6630652679147837</v>
       </c>
       <c r="G14" t="n">
         <v>-0.02887197247398099</v>
       </c>
       <c r="H14" t="n">
-        <v>62.23960861603335</v>
+        <v>62.23216894296577</v>
       </c>
       <c r="I14" t="n">
-        <v>4.17664994196481</v>
+        <v>4.174797097366903</v>
       </c>
       <c r="J14" t="n">
         <v>1.3088144281764453</v>
@@ -1213,13 +1213,13 @@
         <v>-0.2680237475669376</v>
       </c>
       <c r="L14" t="n">
-        <v>68.01360498003025</v>
+        <v>68.00581013047517</v>
       </c>
       <c r="M14" t="n">
-        <v>0.13803479664375828</v>
+        <v>0.13802317780256645</v>
       </c>
       <c r="N14" t="n">
-        <v>25.888269183212454</v>
+        <v>25.881556055086705</v>
       </c>
       <c r="O14" t="n">
         <v>-0.7676235356825565</v>
@@ -1240,7 +1240,7 @@
         <v>54.63667837131624</v>
       </c>
       <c r="U14" t="n">
-        <v>101.1695333267111</v>
+        <v>101.17800774626551</v>
       </c>
       <c r="V14" t="n">
         <v>-0.4897980811143503</v>
@@ -1249,10 +1249,10 @@
         <v>1.0318448104076916</v>
       </c>
       <c r="X14" t="n">
-        <v>1.2236241248819875</v>
+        <v>1.2250453778464818</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5194097828827777</v>
+        <v>0.5218438779401575</v>
       </c>
     </row>
     <row r="15">

--- a/docs/Estadisticas_Descriptivas.xlsx
+++ b/docs/Estadisticas_Descriptivas.xlsx
@@ -1,145 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>adult_literacy</t>
-  </si>
-  <si>
-    <t>air_pollution</t>
-  </si>
-  <si>
-    <t>alcohol_consumption</t>
-  </si>
-  <si>
-    <t>cpi</t>
-  </si>
-  <si>
-    <t>electricity_access</t>
-  </si>
-  <si>
-    <t>Freedom.to.make.life.choices</t>
-  </si>
-  <si>
-    <t>gdp</t>
-  </si>
-  <si>
-    <t>gdp_capita</t>
-  </si>
-  <si>
-    <t>Generosity</t>
-  </si>
-  <si>
-    <t>Healthy.life.expectancy.at.birth</t>
-  </si>
-  <si>
-    <t>labor_force</t>
-  </si>
-  <si>
-    <t>labor_rate</t>
-  </si>
-  <si>
-    <t>land_area</t>
-  </si>
-  <si>
-    <t>Life.Ladder</t>
-  </si>
-  <si>
-    <t>life_expectancy</t>
-  </si>
-  <si>
-    <t>Log.GDP.per.capita</t>
-  </si>
-  <si>
-    <t>Negative.affect</t>
-  </si>
-  <si>
-    <t>Perceptions.of.corruption</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>population_density</t>
-  </si>
-  <si>
-    <t>Positive.affect</t>
-  </si>
-  <si>
-    <t>Social.support</t>
-  </si>
-  <si>
-    <t>unemployment_rate</t>
-  </si>
-  <si>
-    <t>water_access</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std.Dev</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>IQR</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Skewness</t>
-  </si>
-  <si>
-    <t>SE.Skewness</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>N.Valid</t>
-  </si>
-  <si>
-    <t>Pct.Valid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adult_literacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air_pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol_consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freedom_to_make_life_choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdp_capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healthy_life_expectancy_at_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life_expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life_ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_gdp_per_capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perceptions_of_corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unemployment_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std.Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skewness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE.Skewness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pct.Valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +156,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -168,258 +174,550 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>80.69829787234042</v>
+        <v>80.6982978723404</v>
       </c>
       <c r="C2" t="n">
-        <v>88.80627586206897</v>
+        <v>88.806275862069</v>
       </c>
       <c r="D2" t="n">
         <v>5.71111875</v>
       </c>
       <c r="E2" t="n">
-        <v>43.356712328767124</v>
+        <v>43.3567123287671</v>
       </c>
       <c r="F2" t="n">
-        <v>82.99227586206896</v>
+        <v>82.992275862069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7722668598266854</v>
+        <v>0.772266859826685</v>
       </c>
       <c r="H2" t="n">
-        <v>5.199394668185655E11</v>
+        <v>519939466818.565</v>
       </c>
       <c r="I2" t="n">
-        <v>14342.826620689655</v>
+        <v>14342.8266206897</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.003002397394753744</v>
+        <v>-0.00300239739475374</v>
       </c>
       <c r="K2" t="n">
-        <v>63.30192531059528</v>
+        <v>63.3019253105953</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1850737925517242E7</v>
+        <v>1.73972602739726</v>
       </c>
       <c r="M2" t="n">
-        <v>60.597793103448275</v>
+        <v>21850737.9255172</v>
       </c>
       <c r="N2" t="n">
-        <v>831735.3982068965</v>
+        <v>60.5977931034483</v>
       </c>
       <c r="O2" t="n">
-        <v>5.402009419110268</v>
+        <v>831735.398206896</v>
       </c>
       <c r="P2" t="n">
-        <v>72.19534246575343</v>
+        <v>72.1953424657534</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.355072582179103</v>
+        <v>5.40200941911027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.28914275255347427</v>
+        <v>9.3550725821791</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7345767809812279</v>
+        <v>0.289142752553474</v>
       </c>
       <c r="T2" t="n">
-        <v>4.862754127054795E7</v>
+        <v>0.734576780981228</v>
       </c>
       <c r="U2" t="n">
-        <v>211.48862068965516</v>
+        <v>48627541.2705479</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6587614910504608</v>
+        <v>211.488620689655</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8026219326703028</v>
+        <v>0.658761491050461</v>
       </c>
       <c r="X2" t="n">
-        <v>7.415358620689656</v>
+        <v>0.802621932670303</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.40430555555555</v>
+        <v>7.41535862068966</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>87.4043055555556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>16.198157180766724</v>
+        <v>16.1981571807667</v>
       </c>
       <c r="C3" t="n">
-        <v>27.14658726108864</v>
+        <v>27.1465872610886</v>
       </c>
       <c r="D3" t="n">
-        <v>4.195846640666898</v>
+        <v>4.1958466406669</v>
       </c>
       <c r="E3" t="n">
-        <v>19.694103584911556</v>
+        <v>19.6941035849116</v>
       </c>
       <c r="F3" t="n">
-        <v>27.38964127737365</v>
+        <v>27.3896412773736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1231785987301398</v>
+        <v>0.12317859873014</v>
       </c>
       <c r="H3" t="n">
-        <v>1.9620797073444812E12</v>
+        <v>1962079707344.48</v>
       </c>
       <c r="I3" t="n">
-        <v>20030.356747389586</v>
+        <v>20030.3567473896</v>
       </c>
       <c r="J3" t="n">
-        <v>0.15220613609473274</v>
+        <v>0.152206136094733</v>
       </c>
       <c r="K3" t="n">
-        <v>6.656333724326517</v>
+        <v>6.65633372432652</v>
       </c>
       <c r="L3" t="n">
-        <v>7.738943940222323E7</v>
+        <v>1.0508111449506</v>
       </c>
       <c r="M3" t="n">
-        <v>10.085351785974003</v>
+        <v>77389439.4022232</v>
       </c>
       <c r="N3" t="n">
-        <v>2076664.0604624643</v>
+        <v>10.085351785974</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1210328800045068</v>
+        <v>2076664.06046246</v>
       </c>
       <c r="P3" t="n">
-        <v>8.090538208462895</v>
+        <v>8.0905382084629</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2040991182860241</v>
+        <v>1.12103288000451</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08695202625083748</v>
+        <v>1.20409911828602</v>
       </c>
       <c r="S3" t="n">
-        <v>0.17754857962073953</v>
+        <v>0.0869520262508375</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6407431329422265E8</v>
+        <v>0.17754857962074</v>
       </c>
       <c r="U3" t="n">
-        <v>690.6488144212989</v>
+        <v>164074313.294223</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09928129116028417</v>
+        <v>690.648814421299</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1263806174777536</v>
+        <v>0.0992812911602842</v>
       </c>
       <c r="X3" t="n">
-        <v>5.402807340091799</v>
+        <v>0.126380617477754</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.245341513811987</v>
+        <v>5.4028073400918</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>16.245341513812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
         <v>24.16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>9.25</v>
@@ -428,69 +726,72 @@
         <v>5.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4280100464820862</v>
+        <v>0.428010046482086</v>
       </c>
       <c r="H4" t="n">
-        <v>1.061275575E9</v>
+        <v>1061275575</v>
       </c>
       <c r="I4" t="n">
         <v>252.03</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2941466197371483</v>
+        <v>-0.294146619737148</v>
       </c>
       <c r="K4" t="n">
-        <v>42.57500076293945</v>
+        <v>42.5750007629395</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>202457.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>34.18</v>
       </c>
-      <c r="N4" t="n">
-        <v>300.0</v>
-      </c>
       <c r="O4" t="n">
-        <v>3.0844615697860718</v>
+        <v>300</v>
       </c>
       <c r="P4" t="n">
         <v>52.19</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.607255935668945</v>
+        <v>3.08446156978607</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1346807423979044</v>
+        <v>6.60725593566895</v>
       </c>
       <c r="S4" t="n">
-        <v>0.10115216206759214</v>
+        <v>0.134680742397904</v>
       </c>
       <c r="T4" t="n">
+        <v>0.101152162067592</v>
+      </c>
+      <c r="U4" t="n">
         <v>340593.75</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>1.97</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.36301854252815247</v>
-      </c>
       <c r="W4" t="n">
-        <v>0.3048866540193558</v>
+        <v>0.363018542528152</v>
       </c>
       <c r="X4" t="n">
+        <v>0.304886654019356</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.143</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>40.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="n">
-        <v>80.69829787234042</v>
+        <v>80.6982978723404</v>
       </c>
       <c r="C5" t="n">
         <v>97.54</v>
@@ -505,72 +806,75 @@
         <v>75.31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7038564831018448</v>
+        <v>0.703856483101845</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4701455172E10</v>
+        <v>14701455172</v>
       </c>
       <c r="I5" t="n">
         <v>1573.35</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.11106304917484522</v>
+        <v>-0.111063049174845</v>
       </c>
       <c r="K5" t="n">
-        <v>58.64999961853027</v>
+        <v>58.6499996185303</v>
       </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>2080010.75</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>55.15</v>
       </c>
-      <c r="N5" t="n">
-        <v>54390.0</v>
-      </c>
       <c r="O5" t="n">
-        <v>4.509204149246216</v>
+        <v>54390</v>
       </c>
       <c r="P5" t="n">
         <v>65.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.480897426605225</v>
+        <v>4.50920414924622</v>
       </c>
       <c r="R5" t="n">
-        <v>0.22078609466552734</v>
+        <v>8.48089742660522</v>
       </c>
       <c r="S5" t="n">
+        <v>0.220786094665527</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.692341148853302</v>
       </c>
-      <c r="T5" t="n">
-        <v>4751112.0</v>
-      </c>
       <c r="U5" t="n">
+        <v>4751112</v>
+      </c>
+      <c r="V5" t="n">
         <v>34.48</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.5816310793161392</v>
-      </c>
       <c r="W5" t="n">
-        <v>0.7340033203363419</v>
+        <v>0.581631079316139</v>
       </c>
       <c r="X5" t="n">
+        <v>0.734003320336342</v>
+      </c>
+      <c r="Y5" t="n">
         <v>3.88</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>80.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>80.69829787234042</v>
+        <v>80.6982978723404</v>
       </c>
       <c r="C6" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
         <v>5.28465</v>
@@ -582,72 +886,75 @@
         <v>99.525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7886260449886322</v>
+        <v>0.788626044988632</v>
       </c>
       <c r="H6" t="n">
-        <v>5.49170015525E10</v>
+        <v>54917001552.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5317.280000000001</v>
+        <v>5317.28</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.020625543082132936</v>
+        <v>-0.0206255430821329</v>
       </c>
       <c r="K6" t="n">
-        <v>64.89999961853027</v>
+        <v>64.8999996185303</v>
       </c>
       <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
         <v>4774401.875</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>60.675</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>215261.75</v>
       </c>
-      <c r="O6" t="n">
-        <v>5.378751575946808</v>
-      </c>
       <c r="P6" t="n">
-        <v>73.71000000000001</v>
+        <v>73.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.491439700126648</v>
+        <v>5.37875157594681</v>
       </c>
       <c r="R6" t="n">
-        <v>0.28474022075533867</v>
+        <v>9.49143970012665</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7821672186255455</v>
+        <v>0.284740220755339</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0949187375E7</v>
+        <v>0.782167218625546</v>
       </c>
       <c r="U6" t="n">
+        <v>10949187.375</v>
+      </c>
+      <c r="V6" t="n">
         <v>81.35</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.679239071905613</v>
       </c>
-      <c r="W6" t="n">
-        <v>0.8267109245061874</v>
-      </c>
       <c r="X6" t="n">
+        <v>0.826710924506187</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.561</v>
       </c>
-      <c r="Y6" t="n">
-        <v>94.13499999999999</v>
+      <c r="Z6" t="n">
+        <v>94.135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="n">
         <v>94.22</v>
       </c>
       <c r="C7" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>9.4349</v>
@@ -656,75 +963,78 @@
         <v>56.75</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8626752495765686</v>
+        <v>0.862675249576569</v>
       </c>
       <c r="H7" t="n">
-        <v>3.19879952001E11</v>
+        <v>319879952001</v>
       </c>
       <c r="I7" t="n">
         <v>16659.87</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08572910632938147</v>
+        <v>0.0857291063293815</v>
       </c>
       <c r="K7" t="n">
-        <v>68.45000076293945</v>
+        <v>68.4500007629395</v>
       </c>
       <c r="L7" t="n">
-        <v>1.321088775E7</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
+        <v>13210887.75</v>
+      </c>
+      <c r="N7" t="n">
         <v>65.91</v>
       </c>
-      <c r="N7" t="n">
-        <v>652230.0</v>
-      </c>
       <c r="O7" t="n">
-        <v>6.184709668159485</v>
+        <v>652230</v>
       </c>
       <c r="P7" t="n">
         <v>78.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.289611101150513</v>
+        <v>6.18470966815948</v>
       </c>
       <c r="R7" t="n">
-        <v>0.33620477716128033</v>
+        <v>10.2896111011505</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8496798872947693</v>
+        <v>0.33620477716128</v>
       </c>
       <c r="T7" t="n">
-        <v>3.384434325E7</v>
+        <v>0.849679887294769</v>
       </c>
       <c r="U7" t="n">
+        <v>33844343.25</v>
+      </c>
+      <c r="V7" t="n">
         <v>187.19</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.7333692610263824</v>
-      </c>
       <c r="W7" t="n">
-        <v>0.9057479202747345</v>
+        <v>0.733369261026382</v>
       </c>
       <c r="X7" t="n">
+        <v>0.905747920274734</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9.708</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>99.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
         <v>99.99</v>
       </c>
       <c r="C8" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
         <v>16.852</v>
@@ -733,683 +1043,711 @@
         <v>89.25</v>
       </c>
       <c r="F8" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9797039777040482</v>
+        <v>0.979703977704048</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9227881361E13</v>
+        <v>19227881361000</v>
       </c>
       <c r="I8" t="n">
         <v>109835.26</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6288616433739662</v>
+        <v>0.628861643373966</v>
       </c>
       <c r="K8" t="n">
         <v>73.7874984741211</v>
       </c>
       <c r="L8" t="n">
-        <v>7.790467793E8</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
+        <v>779046779.3</v>
+      </c>
+      <c r="N8" t="n">
         <v>87.47</v>
       </c>
-      <c r="N8" t="n">
-        <v>1.637687E7</v>
-      </c>
       <c r="O8" t="n">
-        <v>7.688531994819641</v>
+        <v>16376870</v>
       </c>
       <c r="P8" t="n">
         <v>84.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.64962649345398</v>
+        <v>7.68853199481964</v>
       </c>
       <c r="R8" t="n">
+        <v>11.649626493454</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.64258873462677</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.9419138580560684</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.39165625E9</v>
+        <v>0.941913858056068</v>
       </c>
       <c r="U8" t="n">
+        <v>1391656250</v>
+      </c>
+      <c r="V8" t="n">
         <v>7873.79</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.8283604582150778</v>
-      </c>
       <c r="W8" t="n">
-        <v>0.9773253599802653</v>
+        <v>0.828360458215078</v>
       </c>
       <c r="X8" t="n">
+        <v>0.977325359980265</v>
+      </c>
+      <c r="Y8" t="n">
         <v>23.775</v>
       </c>
-      <c r="Y8" t="n">
-        <v>100.0</v>
+      <c r="Z8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>12.780011999999996</v>
+        <v>12.780012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>5.31104385</v>
       </c>
       <c r="E9" t="n">
-        <v>15.752624999999998</v>
+        <v>15.752625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7042349999999915</v>
+        <v>0.704234999999992</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11817517288774251</v>
+        <v>0.118175172887743</v>
       </c>
       <c r="H9" t="n">
-        <v>7.07238431672766E10</v>
+        <v>70723843167.2766</v>
       </c>
       <c r="I9" t="n">
-        <v>6520.230171000001</v>
+        <v>6520.230171</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1496287240974605</v>
+        <v>0.149628724097461</v>
       </c>
       <c r="K9" t="n">
-        <v>7.162810825824737</v>
+        <v>7.16281082582474</v>
       </c>
       <c r="L9" t="n">
-        <v>5596694.168099999</v>
+        <v>1.4826</v>
       </c>
       <c r="M9" t="n">
-        <v>7.798475999999996</v>
+        <v>5596694.1681</v>
       </c>
       <c r="N9" t="n">
-        <v>283651.50643199997</v>
+        <v>7.798476</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2188096460342406</v>
+        <v>283651.506432</v>
       </c>
       <c r="P9" t="n">
-        <v>8.962317000000002</v>
+        <v>8.962317</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3828601357460022</v>
+        <v>1.21880964603424</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08434261704459786</v>
+        <v>1.382860135746</v>
       </c>
       <c r="S9" t="n">
-        <v>0.11651363199055194</v>
+        <v>0.0843426170445979</v>
       </c>
       <c r="T9" t="n">
-        <v>1.2729274833449999E7</v>
+        <v>0.116513631990552</v>
       </c>
       <c r="U9" t="n">
-        <v>84.24133199999999</v>
+        <v>12729274.83345</v>
       </c>
       <c r="V9" t="n">
-        <v>0.10862623658627271</v>
+        <v>84.241332</v>
       </c>
       <c r="W9" t="n">
-        <v>0.12113388371318579</v>
+        <v>0.108626236586273</v>
       </c>
       <c r="X9" t="n">
-        <v>3.3239891999999998</v>
+        <v>0.121133883713186</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.532363000000014</v>
+        <v>3.3239892</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.53236300000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>13.436702127659572</v>
+        <v>13.4367021276596</v>
       </c>
       <c r="C10" t="n">
-        <v>2.4599999999999937</v>
+        <v>2.45999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>7.524100000000001</v>
+        <v>7.5241</v>
       </c>
       <c r="E10" t="n">
         <v>27.125</v>
       </c>
       <c r="F10" t="n">
-        <v>24.129999999999995</v>
+        <v>24.13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1580219864845276</v>
+        <v>0.158021986484528</v>
       </c>
       <c r="H10" t="n">
-        <v>3.01553258272E11</v>
+        <v>301553258272</v>
       </c>
       <c r="I10" t="n">
-        <v>14990.984999999999</v>
+        <v>14990.985</v>
       </c>
       <c r="J10" t="n">
-        <v>0.19603254063986242</v>
+        <v>0.196032540639862</v>
       </c>
       <c r="K10" t="n">
-        <v>9.734376430511475</v>
+        <v>9.73437643051147</v>
       </c>
       <c r="L10" t="n">
-        <v>1.11054573125E7</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>10.584999999999994</v>
+        <v>11105457.3125</v>
       </c>
       <c r="N10" t="n">
+        <v>10.585</v>
+      </c>
+      <c r="O10" t="n">
         <v>592371.5</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.6603218217690783</v>
-      </c>
       <c r="P10" t="n">
-        <v>13.057500000000005</v>
+        <v>13.0575</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8051788806915283</v>
+        <v>1.66032182176908</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1150770802050829</v>
+        <v>1.80517888069153</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1566538090507189</v>
+        <v>0.115077080205083</v>
       </c>
       <c r="T10" t="n">
-        <v>2.86607859375E7</v>
+        <v>0.156653809050719</v>
       </c>
       <c r="U10" t="n">
-        <v>142.90749999999997</v>
+        <v>28660785.9375</v>
       </c>
       <c r="V10" t="n">
-        <v>0.15077809989452362</v>
+        <v>142.9075</v>
       </c>
       <c r="W10" t="n">
-        <v>0.17079462483525276</v>
+        <v>0.150778099894524</v>
       </c>
       <c r="X10" t="n">
+        <v>0.170794624835253</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5.723</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>18.8275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20072489269093607</v>
+        <v>0.200724892690936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.30568320760631645</v>
+        <v>0.305683207606316</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7346803357340272</v>
+        <v>0.734680335734027</v>
       </c>
       <c r="E11" t="n">
         <v>0.45423424718125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3300263909245546</v>
+        <v>0.330026390924555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.15950263456570432</v>
+        <v>0.159502634565704</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7736694991633613</v>
+        <v>3.77366949916336</v>
       </c>
       <c r="I11" t="n">
-        <v>1.396541788945257</v>
+        <v>1.39654178894526</v>
       </c>
       <c r="J11" t="n">
-        <v>-50.69486682898506</v>
+        <v>-50.6948668289851</v>
       </c>
       <c r="K11" t="n">
-        <v>0.10515215282421118</v>
+        <v>0.105152152824211</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5417311610262834</v>
+        <v>0.604009555759005</v>
       </c>
       <c r="M11" t="n">
-        <v>0.16643100795365603</v>
+        <v>3.54173116102628</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4967845121651155</v>
+        <v>0.166431007953656</v>
       </c>
       <c r="O11" t="n">
-        <v>0.20752145970695945</v>
+        <v>2.49678451216512</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1120645450542841</v>
+        <v>0.112064545054284</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.12871082588709856</v>
+        <v>0.207521459706959</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3007235197249376</v>
+        <v>0.128710825887099</v>
       </c>
       <c r="S11" t="n">
-        <v>0.24170186727597748</v>
+        <v>0.300723519724938</v>
       </c>
       <c r="T11" t="n">
+        <v>0.241701867275977</v>
+      </c>
+      <c r="U11" t="n">
         <v>3.3741025971551</v>
       </c>
-      <c r="U11" t="n">
-        <v>3.2656547296451377</v>
-      </c>
       <c r="V11" t="n">
+        <v>3.26565472964514</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.150709008509241</v>
       </c>
-      <c r="W11" t="n">
-        <v>0.1574597108968708</v>
-      </c>
       <c r="X11" t="n">
-        <v>0.7285969049450124</v>
+        <v>0.157459710896871</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.18586431652942076</v>
+        <v>0.728596904945012</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.185864316529421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.2918474361853092</v>
+        <v>-1.29184743618531</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.5225506749590334</v>
+        <v>-2.52255067495903</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2994784892801578</v>
+        <v>0.299478489280158</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7584483246342189</v>
+        <v>0.758448324634219</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.450059970537098</v>
+        <v>-1.4500599705371</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7025512190911442</v>
+        <v>-0.702551219091144</v>
       </c>
       <c r="H12" t="n">
-        <v>7.4781596907236745</v>
+        <v>7.47815969072367</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0375608312488693</v>
+        <v>2.03756083124887</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8469175457442735</v>
+        <v>0.846917545744273</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.6816536184212085</v>
+        <v>-0.681653618421209</v>
       </c>
       <c r="L12" t="n">
-        <v>7.8660128983431346</v>
+        <v>-0.214920771134738</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.055871291631802225</v>
+        <v>7.86601289834313</v>
       </c>
       <c r="N12" t="n">
-        <v>4.774058858157279</v>
+        <v>-0.0558712916318022</v>
       </c>
       <c r="O12" t="n">
-        <v>0.044018219536452484</v>
+        <v>4.77405885815728</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.5751520794209656</v>
+        <v>-0.575152079420966</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.3231326104606066</v>
+        <v>0.0440182195364525</v>
       </c>
       <c r="R12" t="n">
-        <v>1.0168477539132756</v>
+        <v>-0.323132610460607</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.6542828572421584</v>
+        <v>1.01684775391328</v>
       </c>
       <c r="T12" t="n">
-        <v>7.204554853378887</v>
+        <v>-1.65428285724216</v>
       </c>
       <c r="U12" t="n">
-        <v>9.548374445556385</v>
+        <v>7.20455485337889</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.4572486118392355</v>
+        <v>9.54837444555639</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.1035354044042887</v>
+        <v>-0.457248611839235</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3320562133951013</v>
+        <v>-1.10353540440429</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.3217050379494302</v>
+        <v>1.3320562133951</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-1.32170503794943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="C13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="D13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="F13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="G13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="H13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="I13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="J13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="K13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="L13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="M13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="N13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="O13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="P13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="R13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="S13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="T13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="U13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="V13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="W13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="X13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.20067949827944936</v>
+        <v>0.200679498279449</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.200679498279449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>1.5447454302717345</v>
+        <v>1.54474543027173</v>
       </c>
       <c r="C14" t="n">
-        <v>4.929489407085548</v>
+        <v>4.92948940708555</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9770089904580632</v>
+        <v>-0.977008990458063</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.39098232022118173</v>
+        <v>-0.390982320221182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6630652679147837</v>
+        <v>0.663065267914784</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02887197247398099</v>
+        <v>-0.028871972473981</v>
       </c>
       <c r="H14" t="n">
-        <v>62.23216894296577</v>
+        <v>62.2321689429658</v>
       </c>
       <c r="I14" t="n">
-        <v>4.174797097366903</v>
+        <v>4.1747970973669</v>
       </c>
       <c r="J14" t="n">
-        <v>1.3088144281764453</v>
+        <v>1.30881442817645</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2680237475669376</v>
+        <v>-0.268023747566938</v>
       </c>
       <c r="L14" t="n">
-        <v>68.00581013047517</v>
+        <v>-1.21165985307887</v>
       </c>
       <c r="M14" t="n">
-        <v>0.13802317780256645</v>
+        <v>68.0058101304752</v>
       </c>
       <c r="N14" t="n">
-        <v>25.881556055086705</v>
+        <v>0.138023177802566</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.7676235356825565</v>
+        <v>25.8815560550867</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.6038369939504289</v>
+        <v>-0.603836993950429</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.8403706021921935</v>
+        <v>-0.767623535682556</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6363483860018082</v>
+        <v>-0.840370602192194</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3460662936575476</v>
+        <v>1.63634838600181</v>
       </c>
       <c r="T14" t="n">
-        <v>54.63667837131624</v>
+        <v>2.34606629365755</v>
       </c>
       <c r="U14" t="n">
-        <v>101.17800774626551</v>
+        <v>54.6366783713162</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.4897980811143503</v>
+        <v>101.178007746266</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0318448104076916</v>
+        <v>-0.48979808111435</v>
       </c>
       <c r="X14" t="n">
-        <v>1.2250453778464818</v>
+        <v>1.03184481040769</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5218438779401575</v>
+        <v>1.22504537784648</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.521843877940158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="C15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="D15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="E15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="F15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="G15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="H15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="I15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="L15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="N15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="O15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="P15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="R15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="S15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="T15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="U15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="V15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="W15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="X15" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="n">
-        <v>146.0</v>
+        <v>146</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="O16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="R16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="S16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="T16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="U16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="V16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="W16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="X16" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.0</v>
+        <v>100</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>